--- a/note/Halaman olah nominal uang konsumsi.xlsx
+++ b/note/Halaman olah nominal uang konsumsi.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\Absensi-Binbak\note\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>SDK1</t>
   </si>
@@ -259,13 +264,52 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Jumlah Hari Masuk</t>
+  </si>
+  <si>
+    <t>Jumlah Hari Tidak Masuk</t>
+  </si>
+  <si>
+    <t>Nominal Uang Konsumsi</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Tidak Masuk</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>Weekday &lt;12</t>
+  </si>
+  <si>
+    <t>Weekday &gt;12</t>
+  </si>
+  <si>
+    <t>S+T+U</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D+K+L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +325,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +397,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -304,11 +426,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,12 +553,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -843,7 +1148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,9 +1180,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,6 +1215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,26 +1391,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1450,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1470,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1490,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1510,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1223,12 +1530,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1248,22 +1555,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>24</v>
       </c>
@@ -1276,14 +1583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A21" sqref="A21:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -1305,7 +1612,7 @@
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1328,7 +1635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1351,7 +1658,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1385,7 +1692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1465,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1568,7 +1875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="7" customFormat="1">
+    <row r="17" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -1608,7 +1915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1676,7 +1983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +2006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="3" customFormat="1">
+    <row r="23" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1241</v>
       </c>
@@ -1772,13 +2079,234 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="20"/>
+    <col min="2" max="2" width="10.7109375" style="12"/>
+    <col min="3" max="3" width="10.7109375" style="21"/>
+    <col min="4" max="4" width="10.7109375" style="20"/>
+    <col min="5" max="14" width="10.7109375" style="12"/>
+    <col min="15" max="15" width="10.7109375" style="21"/>
+    <col min="16" max="16" width="10.7109375" style="20"/>
+    <col min="17" max="17" width="10.7109375" style="12"/>
+    <col min="18" max="18" width="10.7109375" style="21"/>
+    <col min="19" max="19" width="10.7109375" style="20"/>
+    <col min="20" max="21" width="10.7109375" style="12"/>
+    <col min="22" max="22" width="10.7109375" style="21"/>
+    <col min="23" max="16384" width="10.7109375" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+    </row>
+    <row r="2" spans="1:22" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>1241</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>2</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1</v>
+      </c>
+      <c r="O3" s="23">
+        <v>1</v>
+      </c>
+      <c r="P3" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>2</v>
+      </c>
+      <c r="R3" s="25">
+        <v>3</v>
+      </c>
+      <c r="S3" s="20">
+        <v>60000</v>
+      </c>
+      <c r="T3" s="12">
+        <v>5000</v>
+      </c>
+      <c r="U3" s="12">
+        <v>15000</v>
+      </c>
+      <c r="V3" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>